--- a/applications/Brazil/SJRP_projections.xlsx
+++ b/applications/Brazil/SJRP_projections.xlsx
@@ -520,76 +520,76 @@
     </row>
     <row r="4" spans="1:24">
       <c r="A4">
-        <v>1419</v>
+        <v>74725</v>
       </c>
       <c r="B4">
-        <v>1140</v>
+        <v>57200</v>
       </c>
       <c r="C4">
-        <v>1928</v>
+        <v>89155</v>
       </c>
       <c r="D4">
-        <v>0.2054394567923746</v>
+        <v>10.81393590364201</v>
       </c>
       <c r="E4">
-        <v>0.1650983022590959</v>
+        <v>8.27778031031546</v>
       </c>
       <c r="F4">
-        <v>0.279078127340336</v>
+        <v>12.90219411828977</v>
       </c>
       <c r="G4">
-        <v>0.08570107517078347</v>
+        <v>0.7677207088500615</v>
       </c>
       <c r="H4">
-        <v>0.07245083801671909</v>
+        <v>0.6559272597291054</v>
       </c>
       <c r="I4">
-        <v>0.1397266161751011</v>
+        <v>0.8107738494500414</v>
       </c>
       <c r="J4">
-        <v>0.0572701125097955</v>
+        <v>0.6000251305157911</v>
       </c>
       <c r="K4">
-        <v>0.05270138558754513</v>
+        <v>0.5187415246452239</v>
       </c>
       <c r="L4">
-        <v>0.06191637850005751</v>
+        <v>0.5886930889371373</v>
       </c>
       <c r="M4">
-        <v>1419</v>
+        <v>13295</v>
       </c>
       <c r="N4">
-        <v>1208</v>
+        <v>13740</v>
       </c>
       <c r="O4">
-        <v>1773</v>
+        <v>22360</v>
       </c>
       <c r="P4">
-        <v>0.2149438940255652</v>
+        <v>2.013493663666442</v>
       </c>
       <c r="Q4">
-        <v>0.1829727344637269</v>
+        <v>2.080887772754939</v>
       </c>
       <c r="R4">
-        <v>0.2685926338087318</v>
+        <v>3.386364672401779</v>
       </c>
       <c r="S4">
-        <v>0.08721191479385498</v>
+        <v>0.2173270708808834</v>
       </c>
       <c r="T4">
-        <v>0.0797643356735496</v>
+        <v>0.2158125965193442</v>
       </c>
       <c r="U4">
-        <v>0.1055309966710339</v>
+        <v>0.3555228563713406</v>
       </c>
       <c r="V4">
-        <v>0.06048820090693795</v>
+        <v>0.632672414746663</v>
       </c>
       <c r="W4">
-        <v>0.05574286204254231</v>
+        <v>0.5500871053307892</v>
       </c>
       <c r="X4">
-        <v>0.06627259801463516</v>
+        <v>0.6447417657585566</v>
       </c>
     </row>
   </sheetData>
